--- a/data/Map143.xlsx
+++ b/data/Map143.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>自動実行</t>
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,14 +370,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map143.xlsx
+++ b/data/Map143.xlsx
@@ -362,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,16 +370,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
